--- a/MyExcelDocument/180403.xlsx
+++ b/MyExcelDocument/180403.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="3960" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>录入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +204,76 @@
   </si>
   <si>
     <t>数据-&gt;数据工具-&gt;快速填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl+E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何位置</t>
+  </si>
+  <si>
+    <t>张</t>
+  </si>
+  <si>
+    <t>快速填充操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取第一位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按固定长度拆分填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按符号拆分填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按日期拆分填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按固定长度合并填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按符号合并填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按日期合并填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名（部门）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三（管理部）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小明（生管部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳（质量监管部）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老梁（总经理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +325,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -265,7 +341,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -273,11 +349,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -285,6 +376,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -781,83 +879,241 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" t="s">
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H6" t="s">
+      <c r="L5" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H7" t="s">
+      <c r="L6" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H8" t="s">
+      <c r="L7" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" s="7" t="s">
         <v>45</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1009</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2008</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="9">
+        <v>3007</v>
+      </c>
+      <c r="F16" s="9">
+        <v>3</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="9">
+        <v>4006</v>
+      </c>
+      <c r="F17" s="9">
+        <v>4</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E18" s="9">
+        <v>2008</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E19" s="9">
+        <v>3007</v>
+      </c>
+      <c r="F19" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E20" s="9">
+        <v>4006</v>
+      </c>
+      <c r="F20" s="9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyExcelDocument/180403.xlsx
+++ b/MyExcelDocument/180403.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="5085" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="227">
   <si>
     <t>录入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,15 +269,673 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小明（生管部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>欧阳（质量监管部）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老梁（总经理</t>
+    <t>智能识别数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速填充的妙用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能识别数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速定位空行</t>
+  </si>
+  <si>
+    <t>张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老梁（总经理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小明（生管部）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生管</t>
+  </si>
+  <si>
+    <t>质量</t>
+  </si>
+  <si>
+    <t>总经</t>
+  </si>
+  <si>
+    <t>按括号拆分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>A类方向机</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B类方向盘</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B类（2级）</t>
+  </si>
+  <si>
+    <t>B7类发动机外壳</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B7类（1级）</t>
+  </si>
+  <si>
+    <t>A类汽门油封</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>A类（9级）</t>
+  </si>
+  <si>
+    <t>C1类缸套阻水圈</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>A类（1级）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1类（3级）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当一个条件不足以判断时，添加更多的判定条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品价格</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名（部门）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名【城市】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>A类 方向机</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三丰（管理部）乌鲁木齐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三丰-乌鲁木齐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B类 方向盘</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>230元-方向盘</t>
+  </si>
+  <si>
+    <t>小明（生管部）成都</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小明-成都</t>
+  </si>
+  <si>
+    <t>AA类 十字节</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>147元-十字节</t>
+  </si>
+  <si>
+    <t>欧阳多杰（IT部）西安</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳多杰-西安</t>
+  </si>
+  <si>
+    <t>A类 汽门油封</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>650元-汽门油封</t>
+  </si>
+  <si>
+    <t>梁汉生（总经办）西双版纳</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁汉生-西双版纳</t>
+  </si>
+  <si>
+    <t>C类 缸套阻水圈</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20元-缸套阻水圈</t>
+  </si>
+  <si>
+    <t>按符号合并填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要空格区分开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500元-方向机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名-入职年</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>王丰</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>王丰（1998年）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘行（1994年）</t>
+  </si>
+  <si>
+    <t>邱万成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱万成（2008年）</t>
+  </si>
+  <si>
+    <t>万一</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>万一（1999年）</t>
+  </si>
+  <si>
+    <t>陈功名</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈功名（2015年）</t>
+  </si>
+  <si>
+    <t>按日期合并填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取数字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>买12.8斤大米a</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000斤b大米</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>买200.5支s笔</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>c吃饭花了878</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件要满足所有情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速定位空行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻子</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>林森</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>字体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字体设置的几个位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮动工具栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见字体设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始-&gt;字体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元格格式对话框（ctrl+1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>厂商</t>
+  </si>
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>参考价格</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>惠普</t>
+  </si>
+  <si>
+    <t>Mini1000</t>
+  </si>
+  <si>
+    <t>2100(600+1500)</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>戴尔</t>
+  </si>
+  <si>
+    <t>Mini10</t>
+  </si>
+  <si>
+    <t>Haier</t>
+  </si>
+  <si>
+    <t>海尔</t>
+  </si>
+  <si>
+    <t>海尔X105</t>
+  </si>
+  <si>
+    <t>2100(600+1501)</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
+  </si>
+  <si>
+    <t>联想</t>
+  </si>
+  <si>
+    <t>昭阳M10W</t>
+  </si>
+  <si>
+    <t>2100(600+1502)</t>
+  </si>
+  <si>
+    <t>Tongfang PC</t>
+  </si>
+  <si>
+    <t>清华同方</t>
+  </si>
+  <si>
+    <t>IminiS5</t>
+  </si>
+  <si>
+    <t>2100(600+1503)</t>
+  </si>
+  <si>
+    <t>移动补贴（话费+网费）</t>
+  </si>
+  <si>
+    <t>宋体。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加粗/倾斜/下划线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>移动</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <strike/>
+        <u val="double"/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补贴</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u val="double"/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（话费+网费）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元格对话框修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需先改成文本格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边框设置位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.功能区-开始-字体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预设边框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制边框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.单元格格式（ctrl+1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     项目
+品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        项目
+品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效率低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底纹设置位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.字体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单色设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渐变设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图案设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底纹设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以自定义调整或者设置三原色</t>
+  </si>
+  <si>
+    <t>混合双色填充（填充效果）</t>
+  </si>
+  <si>
+    <t>填充设置底纹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对齐设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能区-开始-对齐方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置单元格格式（ctrl+1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.文本对齐方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平对齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直对齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.文本控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动换行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩小字体填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并单元格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直、水平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在缩进</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +943,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,16 +994,194 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u val="double"/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <strike/>
+      <u val="double"/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FF00B0F0"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF008EC0"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF8BE1FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill degree="270">
+        <stop position="0">
+          <color theme="3" tint="0.40000610370189521"/>
+        </stop>
+        <stop position="1">
+          <color theme="3" tint="0.59999389629810485"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF37CBFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -364,11 +1204,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="double">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="double">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="double">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal style="thin">
+        <color rgb="FF0070C0"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="double">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="double">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="double">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="double">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="double">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="double">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="double">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal style="thin">
+        <color rgb="FF00B0F0"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -383,12 +1287,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF37CBFF"/>
+      <color rgb="FF0066FF"/>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -879,32 +1876,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -915,7 +1918,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -934,8 +1937,20 @@
       <c r="L5" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="I6" s="7" t="s">
         <v>43</v>
       </c>
@@ -948,8 +1963,20 @@
       <c r="L6" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -971,8 +1998,20 @@
       <c r="L7" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="I8" s="7" t="s">
         <v>45</v>
       </c>
@@ -985,135 +2024,1631 @@
       <c r="L8" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="M8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+    </row>
+    <row r="11" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="12" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="I12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="F13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="F14" s="9">
+        <v>1009</v>
+      </c>
+      <c r="G14" s="9">
+        <v>10</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" s="14">
+        <v>36134</v>
+      </c>
+      <c r="O14" s="15">
+        <v>1998</v>
+      </c>
+      <c r="P14" s="15">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="9">
-        <v>1009</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
+        <v>2008</v>
+      </c>
+      <c r="G15" s="9">
+        <v>20</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15" s="14">
+        <v>34442</v>
+      </c>
+      <c r="O15" s="15">
+        <v>1994</v>
+      </c>
+      <c r="P15" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="F16" s="9">
+        <v>7007</v>
+      </c>
+      <c r="G16" s="9">
+        <v>70</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" s="14">
+        <v>39668</v>
+      </c>
+      <c r="O16" s="15">
+        <v>2008</v>
+      </c>
+      <c r="P16" s="15">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="F17" s="9">
+        <v>4006</v>
+      </c>
+      <c r="G17" s="9">
+        <v>40</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N17" s="14">
+        <v>36473</v>
+      </c>
+      <c r="O17" s="15">
+        <v>1999</v>
+      </c>
+      <c r="P17" s="15">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2008</v>
+      </c>
+      <c r="G18" s="9">
+        <v>20</v>
+      </c>
+      <c r="N18" s="14">
+        <v>42018</v>
+      </c>
+      <c r="O18" s="15">
+        <v>2015</v>
+      </c>
+      <c r="P18" s="15">
         <v>1</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="Q18" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="9">
-        <v>2008</v>
-      </c>
-      <c r="F15" s="9">
-        <v>2</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="F19" s="9">
+        <v>3007</v>
+      </c>
+      <c r="G19" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="9">
-        <v>3007</v>
-      </c>
-      <c r="F16" s="9">
-        <v>3</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="F20" s="9">
+        <v>4006</v>
+      </c>
+      <c r="G20" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="F22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="F23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+    </row>
+    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="F24" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1001</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="M24" s="16"/>
+      <c r="N24" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="P24" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="F25" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="18">
+        <v>2004</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" s="18">
+        <v>1500</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="M25" s="16"/>
+      <c r="N25" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="O25" s="14">
+        <v>36134</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="F26" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1002</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="K26" s="18">
+        <v>230</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M26" s="16"/>
+      <c r="N26" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="O26" s="14">
+        <v>34442</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="F27" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="18">
+        <v>9010</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="K27" s="18">
+        <v>147</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="M27" s="16"/>
+      <c r="N27" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="O27" s="14">
+        <v>39668</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="F28" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="18">
+        <v>3008</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" s="18">
+        <v>650</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M28" s="16"/>
+      <c r="N28" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="O28" s="14">
+        <v>36473</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J29" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="18">
+        <v>20</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="M29" s="16"/>
+      <c r="N29" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="O29" s="14">
+        <v>42018</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="F30" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="F31" s="19"/>
+      <c r="J31" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="J33" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K33" s="21"/>
+      <c r="L33" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J34" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="K34" s="22"/>
+      <c r="L34" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J35" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="K35" s="22"/>
+      <c r="L35" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J36" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="K36" s="22"/>
+      <c r="L36" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J37" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="K37" s="22"/>
+      <c r="L37" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="9">
-        <v>4006</v>
-      </c>
-      <c r="F17" s="9">
-        <v>4</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="E18" s="9">
-        <v>2008</v>
-      </c>
-      <c r="F18" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="E19" s="9">
-        <v>3007</v>
-      </c>
-      <c r="F19" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="E20" s="9">
-        <v>4006</v>
-      </c>
-      <c r="F20" s="9">
-        <v>4</v>
+      <c r="F41" t="s">
+        <v>145</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E43" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" s="15">
+        <v>12.8</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="J43" s="15">
+        <v>4500</v>
+      </c>
+      <c r="K43">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E44" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" s="26">
+        <v>6000</v>
+      </c>
+      <c r="I44" s="24"/>
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E45" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="26">
+        <v>200.5</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J45" s="15">
+        <v>9500</v>
+      </c>
+      <c r="K45">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E46" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46" s="26">
+        <v>878</v>
+      </c>
+      <c r="I46" s="24"/>
+      <c r="J46" s="15"/>
+    </row>
+    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I47" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="J47" s="15">
+        <v>8800</v>
+      </c>
+      <c r="K47">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I48" s="24"/>
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="9:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I49" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="J49" s="15">
+        <v>12800</v>
+      </c>
+      <c r="K49">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="50" spans="9:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I50" s="24"/>
+      <c r="J50" s="15"/>
+    </row>
+    <row r="51" spans="9:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I51" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="J51" s="15">
+        <v>16800</v>
+      </c>
+      <c r="K51">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="52" spans="9:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I52" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="J52" s="15">
+        <v>18800</v>
+      </c>
+      <c r="K52">
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="53" spans="9:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I53" s="24"/>
+      <c r="J53" s="15"/>
+    </row>
+    <row r="54" spans="9:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I54" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="J54" s="15">
+        <v>22800</v>
+      </c>
+      <c r="K54">
+        <v>22800</v>
+      </c>
+    </row>
+    <row r="55" spans="9:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I55" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="J55" s="15">
+        <v>24800</v>
+      </c>
+      <c r="K55">
+        <v>24800</v>
+      </c>
+    </row>
+    <row r="56" spans="9:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I56" s="24"/>
+      <c r="J56" s="15"/>
+    </row>
+    <row r="57" spans="9:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I57" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="J57" s="15">
+        <v>28800</v>
+      </c>
+      <c r="K57">
+        <v>28800</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="9" max="9" width="23.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="29"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="29"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="E9" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="J9" s="33"/>
+      <c r="K9" s="32"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="E10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10">
+        <v>4999</v>
+      </c>
+      <c r="I10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="E11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11">
+        <v>3880</v>
+      </c>
+      <c r="I11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="E12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12">
+        <v>3399</v>
+      </c>
+      <c r="I12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="E13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H13">
+        <v>3599</v>
+      </c>
+      <c r="I13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="E14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" t="s">
+        <v>186</v>
+      </c>
+      <c r="H14">
+        <v>3499</v>
+      </c>
+      <c r="I14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="H20" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="I20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="37"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="37"/>
+    </row>
+    <row r="11" spans="1:13" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="37"/>
+      <c r="I11" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="37"/>
+      <c r="I12" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="L12" s="39">
+        <v>4999</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13" s="39">
+        <v>3880</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="L14" s="39">
+        <v>3399</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="L15" s="39">
+        <v>3599</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="L16" s="39">
+        <v>3499</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="9:13" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="9:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="9:13" ht="45.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" s="40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="9:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" s="40">
+        <v>4999</v>
+      </c>
+      <c r="M20" s="40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="9:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" s="40">
+        <v>3880</v>
+      </c>
+      <c r="M21" s="40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="9:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" s="40">
+        <v>3399</v>
+      </c>
+      <c r="M22" s="40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="9:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="L23" s="40">
+        <v>3599</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="9:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24" s="40">
+        <v>3499</v>
+      </c>
+      <c r="M24" s="40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="9:13" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="28"/>
+      <c r="B6" s="27"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="27"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="F13" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F14" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="I14" s="44">
+        <v>4999</v>
+      </c>
+      <c r="J14" s="44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F15" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="I15" s="44">
+        <v>3880</v>
+      </c>
+      <c r="J15" s="44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F16" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="I16" s="44">
+        <v>3399</v>
+      </c>
+      <c r="J16" s="44" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F17" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="I17" s="44">
+        <v>3599</v>
+      </c>
+      <c r="J17" s="44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F18" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="I18" s="44">
+        <v>3499</v>
+      </c>
+      <c r="J18" s="44" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F24" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="J24" s="46" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F25" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="I25" s="47">
+        <v>4999</v>
+      </c>
+      <c r="J25" s="47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F26" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="I26" s="47">
+        <v>3880</v>
+      </c>
+      <c r="J26" s="47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F27" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="H27" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="I27" s="47">
+        <v>3399</v>
+      </c>
+      <c r="J27" s="47" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F28" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="H28" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="I28" s="47">
+        <v>3599</v>
+      </c>
+      <c r="J28" s="47" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F29" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="G29" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="H29" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I29" s="47">
+        <v>3499</v>
+      </c>
+      <c r="J29" s="47" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="27"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="27"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>